--- a/70000029-cdo_appian-T2PRJ0405368-Alojables-tmp/Alojables/tmp/content/_a-0000eb09-d442-8000-e687-01ef9001ef90_8737709/file.xlsx
+++ b/70000029-cdo_appian-T2PRJ0405368-Alojables-tmp/Alojables/tmp/content/_a-0000eb09-d442-8000-e687-01ef9001ef90_8737709/file.xlsx
@@ -26,7 +26,7 @@
     <numFmt numFmtId="169" formatCode="MMM d, yyyy"/>
     <numFmt numFmtId="170" formatCode="MMM d, yyyy h:mm AM/PM"/>
   </numFmts>
-  <fonts count="53" x14ac:knownFonts="1">
+  <fonts count="67" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +167,83 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -718,7 +795,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="650">
+  <cellXfs count="916">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2563,6 +2640,762 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="right" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2920,7 +3753,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3044,10 +3877,94 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
-          <t>No data available due to empty data source, applied filter/selection criteria, or fields visibility.</t>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0182</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>qqda6RcO+4pEwINVUksvuGjVHi08hvlb1gfFE2pm3MY</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>118000.0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>TORREON EMP</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Q00002</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Usuario azure</t>
+        </is>
+      </c>
+      <c r="J2" s="898" t="n">
+        <v>44445.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>ALTAIR PARTICULARES</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Europeo</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>9992</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SERGIO TORRES VARGAS ABONO A CUENTA DE CHEQUE </t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>283586</t>
         </is>
       </c>
     </row>
